--- a/Employee_Reports35/Arnel Neri Montemayor Q0529.xlsx
+++ b/Employee_Reports35/Arnel Neri Montemayor Q0529.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="59" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -979,53 +979,54 @@
       <c r="K11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>LOTO (SOPs)</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>ELECTRICAL SAFETY</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>LSME-OHS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Equipment Operation Procedure
+(SOP-031) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-031</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>21-Sep-2025</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>21-Sep-2026</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>322</v>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>13-Oct-2024</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>13-Oct-2025</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>-22</v>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
@@ -1033,8 +1034,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Equipment Operation Procedure
-(SOP-031) (SOPs)</t>
+          <t>STACKER CRANE AISLE MONTHLY PREVENTIVE MAINTENANCE (SOPs)</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-031</t>
+          <t>LSME-CRG-SOP-035</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1054,20 +1054,20 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>13-Oct-2024</t>
+          <t>19-Aug-2024</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>13-Oct-2025</t>
+          <t>19-Aug-2025</t>
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>-21</v>
+        <v>-77</v>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1083,24 +1083,12 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>STACKER CRANE AISLE MONTHLY PREVENTIVE MAINTENANCE (SOPs)</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-035</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr"/>
+      <c r="D14" s="4" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr"/>
       <c r="F14" s="4" t="inlineStr">
         <is>
           <t>19-Aug-2024</t>
@@ -1112,11 +1100,11 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>-76</v>
+        <v>-77</v>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -1125,92 +1113,6 @@
         </is>
       </c>
       <c r="K14" s="4" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>19-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>19-Aug-2025</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>-76</v>
-      </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K15" s="4" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>19-Feb-2025</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>19-Feb-2026</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>108</v>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Arnel Neri Montemayor Q0529.xlsx
+++ b/Employee_Reports35/Arnel Neri Montemayor Q0529.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1063,11 +1063,11 @@
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>-77</v>
+        <v>-78</v>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1100,11 +1100,11 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>-77</v>
+        <v>-78</v>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
